--- a/src/test/java/com/test/datas/TestResult.xlsx
+++ b/src/test/java/com/test/datas/TestResult.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="53">
   <si>
     <t>测试时间</t>
   </si>
@@ -80,6 +80,99 @@
   </si>
   <si>
     <t>2022/04/24 21:50:09</t>
+  </si>
+  <si>
+    <t>2022/04/25 21:49:28</t>
+  </si>
+  <si>
+    <t>2022/04/25 21:49:39</t>
+  </si>
+  <si>
+    <t>2022/04/25 21:52:50</t>
+  </si>
+  <si>
+    <t>com.test.cases+登录测试</t>
+  </si>
+  <si>
+    <t>2022/04/25 21:53:02</t>
+  </si>
+  <si>
+    <t>2022/04/25 23:54:23</t>
+  </si>
+  <si>
+    <t>2022/04/25 23:54:34</t>
+  </si>
+  <si>
+    <t>2022/05/06 20:14:05</t>
+  </si>
+  <si>
+    <t>2022/05/06 20:14:16</t>
+  </si>
+  <si>
+    <t>2022/05/06 20:18:35</t>
+  </si>
+  <si>
+    <t>2022/05/06 20:18:46</t>
+  </si>
+  <si>
+    <t>2022/05/06 20:21:23</t>
+  </si>
+  <si>
+    <t>2022/05/06 20:26:52</t>
+  </si>
+  <si>
+    <t>2022/05/06 20:27:03</t>
+  </si>
+  <si>
+    <t>2022/05/06 20:27:34</t>
+  </si>
+  <si>
+    <t>2022/05/06 20:27:46</t>
+  </si>
+  <si>
+    <t>2022/05/06 20:32:52</t>
+  </si>
+  <si>
+    <t>2022/05/06 20:33:03</t>
+  </si>
+  <si>
+    <t>2022/05/06 20:35:21</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>登录成功</t>
+  </si>
+  <si>
+    <t>2022/05/06 20:35:32</t>
+  </si>
+  <si>
+    <t>2022/05/06 20:37:44</t>
+  </si>
+  <si>
+    <t>2022/05/06 20:37:56</t>
+  </si>
+  <si>
+    <t>2022/05/06 20:41:05</t>
+  </si>
+  <si>
+    <t>2022/05/06 20:41:17</t>
+  </si>
+  <si>
+    <t>2022/05/06 20:41:56</t>
+  </si>
+  <si>
+    <t>2022/05/06 20:42:07</t>
+  </si>
+  <si>
+    <t>2022/05/06 20:51:17</t>
+  </si>
+  <si>
+    <t>2022/05/06 20:57:38</t>
+  </si>
+  <si>
+    <t>2022/05/06 20:57:50</t>
   </si>
 </sst>
 </file>
@@ -723,11 +816,39 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="true" applyBorder="true"/>
@@ -1301,6 +1422,650 @@
         <v>13</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s" s="10">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s" s="11">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s" s="12">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s" s="13">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s" s="14">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s" s="16">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s" s="17">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s" s="18">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s" s="19">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s" s="20">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" t="s" s="21">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s" s="22">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" t="s" s="23">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" t="s" s="24">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" t="s" s="25">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s" s="26">
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" t="s" s="29">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" t="s" s="30">
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" t="s" s="31">
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" t="s" s="32">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" t="s" s="33">
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" t="s" s="34">
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" t="s" s="35">
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" t="s" s="36">
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" t="s" s="37">
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
